--- a/数据库修改记录.xlsx
+++ b/数据库修改记录.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\赵建伟\Documents\PROJECTS\GITHUB\TextFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA0A589-5AE5-47E4-BC15-06F622F97A23}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7EBB57-5F60-49E3-A634-2620C3A94535}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FTS" sheetId="1" r:id="rId1"/>
     <sheet name="FTS_CLIENT" sheetId="2" r:id="rId2"/>
     <sheet name="DETECT" sheetId="3" r:id="rId3"/>
+    <sheet name="test" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>表名</t>
   </si>
@@ -156,6 +157,10 @@
   </si>
   <si>
     <t>侦测设备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +283,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,19 +301,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
@@ -685,13 +693,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -708,7 +716,7 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -727,7 +735,7 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -746,7 +754,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -765,7 +773,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -784,7 +792,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -803,7 +811,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -822,7 +830,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -841,7 +849,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
@@ -860,7 +868,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -879,7 +887,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -898,7 +906,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -917,7 +925,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -936,7 +944,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -955,7 +963,7 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -974,7 +982,7 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -995,7 +1003,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1014,7 +1022,7 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1033,13 +1041,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1053,16 +1061,16 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1076,12 +1084,12 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -1097,12 +1105,12 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
@@ -1118,12 +1126,12 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1138,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="10">
+      <c r="H24" s="5">
         <v>43559</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -1154,4 +1162,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7335FF1D-A759-41F9-825C-B64CBF03D16E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>